--- a/resources/variants/В55.xlsx
+++ b/resources/variants/В55.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,23 +422,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>4</v>
+      </c>
     </row>
+    <row r="2">
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/variants/В55.xlsx
+++ b/resources/variants/В55.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,39 @@
         <v>1</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>444</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4444</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
-    <row r="5"/>
-    <row r="6"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/variants/В55.xlsx
+++ b/resources/variants/В55.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/variants/В55.xlsx
+++ b/resources/variants/В55.xlsx
@@ -442,6 +442,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="E1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,6 +469,12 @@
         <is>
           <t xml:space="preserve"> </t>
         </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/resources/variants/В55.xlsx
+++ b/resources/variants/В55.xlsx
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -474,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">

--- a/resources/variants/В55.xlsx
+++ b/resources/variants/В55.xlsx
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -507,24 +507,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1dv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
